--- a/germline_schema/docs/inferred_sequence_documentation_sheet.xlsx
+++ b/germline_schema/docs/inferred_sequence_documentation_sheet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -28,6 +28,14 @@
     <t>Please complete details on all tabs.</t>
   </si>
   <si>
+    <t>Note on Sequence Co-ordinates</t>
+  </si>
+  <si>
+    <t>Nucleotides within the inferred sequence are numbered from 1 - that is, a sequence of length n 
+should be numbered from 1 to n. These numbers are used as co-ordinates to identify the start 
+and end nucleotide of defined regions.</t>
+  </si>
+  <si>
     <t>Schema Version</t>
   </si>
   <si>
@@ -70,7 +78,8 @@
     <t>release_version</t>
   </si>
   <si>
-    <t>Version number of this record, allocated automatically</t>
+    <t>Version number of this record, updated whenever a revised
+version is published</t>
   </si>
   <si>
     <t>release_description</t>
@@ -89,7 +98,7 @@
     <t>pub_ids</t>
   </si>
   <si>
-    <t>Peer-reviewed publications describing this dataset</t>
+    <t>Peer-reviewed publications describing this inference</t>
   </si>
   <si>
     <t>organism</t>
@@ -374,15 +383,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-    </font>
-    <font>
       <name val="Calibri"/>
       <family val="2"/>
       <i val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -605,15 +614,19 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -622,7 +635,6 @@
     <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -632,7 +644,7 @@
     <xf borderId="16" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="17" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -930,7 +942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -939,7 +951,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="3"/>
-    <col customWidth="1" max="2" min="2" width="44"/>
+    <col customWidth="1" max="2" min="2" width="97"/>
     <col customWidth="1" max="3" min="3" width="62"/>
     <col customWidth="1" max="4" min="4" width="10"/>
   </cols>
@@ -963,653 +975,664 @@
       </c>
     </row>
     <row r="6" spans="1:4"/>
-    <row r="7" spans="1:4"/>
+    <row r="7" spans="1:4">
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="8" spans="1:4">
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>1.3</v>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4"/>
     <row r="10" spans="1:4"/>
     <row r="11" spans="1:4">
-      <c r="B11" s="1" t="s">
-        <v>4</v>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="12" spans="1:4"/>
-    <row r="13" spans="1:4">
-      <c r="B13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4" t="s">
+    <row r="13" spans="1:4"/>
+    <row r="14" spans="1:4">
+      <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="5" t="s">
+    </row>
+    <row r="15" spans="1:4"/>
+    <row r="16" spans="1:4">
+      <c r="B16" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="6" t="s">
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="6" t="s">
+      <c r="D17" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="B17" s="6" t="s">
+      <c r="D18" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="B18" s="6" t="s">
+      <c r="D19" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="B19" s="6" t="s">
+      <c r="D20" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="B20" s="6" t="s">
+      <c r="D21" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="B21" s="6" t="s">
+      <c r="D22" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="B22" s="6" t="s">
+      <c r="D23" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="B23" s="6" t="s">
+      <c r="D24" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="B24" s="6" t="s">
+      <c r="D25" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="B25" s="6" t="s">
+      <c r="D26" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="B26" s="6" t="s">
+      <c r="D27" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="B27" s="6" t="s">
+      <c r="D28" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" s="6" t="s">
+      <c r="D29" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="B29" s="6" t="s">
+      <c r="D30" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C31" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="B30" s="6" t="s">
+      <c r="D31" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C32" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="B31" s="6" t="s">
+      <c r="D32" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="B33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="B32" s="6" t="s">
+      <c r="D33" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="B34" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="B33" s="6" t="s">
+      <c r="D34" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="B35" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="B34" s="6" t="s">
+      <c r="D35" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="B36" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="B35" s="6" t="s">
+      <c r="D36" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C37" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="B36" s="6" t="s">
+      <c r="D37" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C38" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="B37" s="6" t="s">
+      <c r="D38" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="B39" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C39" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="B38" s="6" t="s">
+      <c r="D39" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="B40" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C40" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="B39" s="6" t="s">
+      <c r="D40" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="B41" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C41" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="B40" s="6" t="s">
+      <c r="D41" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="B42" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="B41" s="6" t="s">
+      <c r="D42" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="B43" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C43" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="B42" s="6" t="s">
+      <c r="D43" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="B44" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="B43" s="6" t="s">
+      <c r="D44" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C45" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="B44" s="6" t="s">
+      <c r="D45" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="B46" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C46" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="B45" s="6" t="s">
+      <c r="D46" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="B47" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C47" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="B46" s="6" t="s">
+      <c r="D47" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="B48" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C48" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="B47" s="6" t="s">
+      <c r="D48" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="B49" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C49" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="B48" s="6" t="s">
+      <c r="D49" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="B50" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C50" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="B49" s="6" t="s">
+      <c r="D50" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="B51" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C51" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="B50" s="6" t="s">
+      <c r="D51" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="B52" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C52" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="B51" s="6" t="s">
+      <c r="D52" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="B53" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C53" t="s">
         <v>83</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="B52" s="6" t="s">
+      <c r="D53" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="B54" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C54" t="s">
         <v>85</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="B53" s="6" t="s">
+      <c r="D54" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="B55" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C55" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="B54" s="9" t="s">
+      <c r="D55" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="B56" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="10" t="n"/>
-      <c r="D54" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4"/>
-    <row r="56" spans="1:4"/>
-    <row r="57" spans="1:4"/>
-    <row r="58" spans="1:4">
-      <c r="B58" s="1" t="s">
+      <c r="C56" t="s">
         <v>89</v>
       </c>
-    </row>
+      <c r="D56" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="B57" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="12" t="n"/>
+      <c r="D57" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4"/>
     <row r="59" spans="1:4"/>
-    <row r="60" spans="1:4">
-      <c r="B60" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60" s="4" t="s">
+    <row r="60" spans="1:4"/>
+    <row r="61" spans="1:4">
+      <c r="B61" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D60" s="5" t="s">
+    </row>
+    <row r="62" spans="1:4"/>
+    <row r="63" spans="1:4">
+      <c r="B63" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="B61" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="B62" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="B63" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" t="s">
-        <v>0</v>
+      <c r="C63" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C64" t="s">
         <v>0</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C65" t="s">
         <v>0</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C66" t="s">
         <v>0</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="B70" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4"/>
-    <row r="72" spans="1:4"/>
+      <c r="B70" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="B71" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="B72" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="73" spans="1:4">
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4"/>
+    <row r="75" spans="1:4"/>
+    <row r="76" spans="1:4">
+      <c r="B76" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="B77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="B78" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="B79" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="B74" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="B75" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C75" s="7" t="s">
+      <c r="C79" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="B80" s="11" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="B76" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="B77" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4"/>
+      <c r="C80" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1638,81 +1661,81 @@
     <row r="2" spans="1:3"/>
     <row r="3" spans="1:3">
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="1" t="n"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="8" t="s">
-        <v>98</v>
+      <c r="B5" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3"/>
     <row r="7" spans="1:3">
-      <c r="B7" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>100</v>
+      <c r="B7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="15" t="n"/>
-      <c r="C8" s="16" t="n"/>
+      <c r="B8" s="16" t="n"/>
+      <c r="C8" s="17" t="n"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="15" t="n"/>
-      <c r="C9" s="16" t="n"/>
+      <c r="B9" s="16" t="n"/>
+      <c r="C9" s="17" t="n"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="15" t="n"/>
-      <c r="C10" s="16" t="n"/>
+      <c r="B10" s="16" t="n"/>
+      <c r="C10" s="17" t="n"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="15" t="n"/>
-      <c r="C11" s="16" t="n"/>
+      <c r="B11" s="16" t="n"/>
+      <c r="C11" s="17" t="n"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="15" t="n"/>
-      <c r="C12" s="16" t="n"/>
+      <c r="B12" s="16" t="n"/>
+      <c r="C12" s="17" t="n"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="15" t="n"/>
-      <c r="C13" s="16" t="n"/>
+      <c r="B13" s="16" t="n"/>
+      <c r="C13" s="17" t="n"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="15" t="n"/>
-      <c r="C14" s="16" t="n"/>
+      <c r="B14" s="16" t="n"/>
+      <c r="C14" s="17" t="n"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="15" t="n"/>
-      <c r="C15" s="16" t="n"/>
+      <c r="B15" s="16" t="n"/>
+      <c r="C15" s="17" t="n"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="15" t="n"/>
-      <c r="C16" s="16" t="n"/>
+      <c r="B16" s="16" t="n"/>
+      <c r="C16" s="17" t="n"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="15" t="n"/>
-      <c r="C17" s="16" t="n"/>
+      <c r="B17" s="16" t="n"/>
+      <c r="C17" s="17" t="n"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" s="15" t="n"/>
-      <c r="C18" s="16" t="n"/>
+      <c r="B18" s="16" t="n"/>
+      <c r="C18" s="17" t="n"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="B19" s="15" t="n"/>
-      <c r="C19" s="16" t="n"/>
+      <c r="B19" s="16" t="n"/>
+      <c r="C19" s="17" t="n"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="B20" s="15" t="n"/>
-      <c r="C20" s="16" t="n"/>
+      <c r="B20" s="16" t="n"/>
+      <c r="C20" s="17" t="n"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="B21" s="17" t="n"/>
-      <c r="C21" s="18" t="n"/>
+      <c r="B21" s="18" t="n"/>
+      <c r="C21" s="19" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1744,56 +1767,56 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="1" t="n"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="8" t="s">
-        <v>102</v>
+      <c r="B5" s="10" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:2"/>
     <row r="7" spans="1:2"/>
     <row r="8" spans="1:2">
-      <c r="B8" s="19" t="s">
-        <v>103</v>
+      <c r="B8" s="20" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="B9" s="20" t="n"/>
+      <c r="B9" s="21" t="n"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" s="20" t="n"/>
+      <c r="B10" s="21" t="n"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="B11" s="20" t="n"/>
+      <c r="B11" s="21" t="n"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="B12" s="20" t="n"/>
+      <c r="B12" s="21" t="n"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="20" t="n"/>
+      <c r="B13" s="21" t="n"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="20" t="n"/>
+      <c r="B14" s="21" t="n"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="20" t="n"/>
+      <c r="B15" s="21" t="n"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="B16" s="21" t="n"/>
+      <c r="B16" s="22" t="n"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="B17" s="20" t="n"/>
+      <c r="B17" s="21" t="n"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="B18" s="20" t="n"/>
+      <c r="B18" s="21" t="n"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="B19" s="22" t="n"/>
+      <c r="B19" s="23" t="n"/>
     </row>
     <row r="20" spans="1:2"/>
   </sheetData>

--- a/germline_schema/docs/inferred_sequence_documentation_sheet.xlsx
+++ b/germline_schema/docs/inferred_sequence_documentation_sheet.xlsx
@@ -17,12 +17,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>IARC Inferred Sequence Documentation Sheet</t>
+  </si>
+  <si>
+    <t>This sheet is used to document an inferred gene sequence published by IARC, based on information contained
+within one or more submissions to the Committee. It may be re-issued if new information comes to light (for
+example, if supporting information is contained in further submissions to IARC). In such cases, the description_id 
+will never change, and can therefore be used to associate revisions of the same inferred sequence.</t>
   </si>
   <si>
     <t>Please complete details on all tabs.</t>
@@ -54,7 +60,7 @@
     <t>description_id</t>
   </si>
   <si>
-    <t>Unique identifier of this gene description</t>
+    <t>Unique identifier of this gene sequence</t>
   </si>
   <si>
     <t>author</t>
@@ -79,7 +85,7 @@
   </si>
   <si>
     <t>Version number of this record, updated whenever a revised
-version is published</t>
+version is published or released</t>
   </si>
   <si>
     <t>release_description</t>
@@ -107,17 +113,17 @@
     <t>Binomial designation of subject's species</t>
   </si>
   <si>
-    <t>gene_name</t>
-  </si>
-  <si>
-    <t>The canonical name of this gene (i.e., the name which the
-curators determine should be used by preference)</t>
+    <t>sequence_name</t>
+  </si>
+  <si>
+    <t>The canonical name of this sequence (i.e., the name which
+the curators determine should be used by preference)</t>
   </si>
   <si>
     <t>alt_names</t>
   </si>
   <si>
-    <t>Alternative names for this gene</t>
+    <t>Alternative names for this sequence</t>
   </si>
   <si>
     <t>locus</t>
@@ -126,10 +132,10 @@
     <t>Gene locus</t>
   </si>
   <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>Gene region</t>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>Sequence domain (Variable or Constant)</t>
   </si>
   <si>
     <t>functionality</t>
@@ -138,10 +144,12 @@
     <t>Functionality</t>
   </si>
   <si>
-    <t>inference_class</t>
-  </si>
-  <si>
-    <t>Class of sequence(s) from which this gene was inferred</t>
+    <t>inference_type</t>
+  </si>
+  <si>
+    <t>Type of inference(s) from which this gene sequence was
+inferred (Genomic and Rearranged, Genomic Only, Rearranged
+Only)</t>
   </si>
   <si>
     <t>affirmation_level</t>
@@ -297,18 +305,6 @@
   </si>
   <si>
     <t>Canonical names of 0 or more paralogs</t>
-  </si>
-  <si>
-    <t>observed_sequences</t>
-  </si>
-  <si>
-    <t>IDs of 0 or more Observed_Sequence records</t>
-  </si>
-  <si>
-    <t>genomic_sequences</t>
-  </si>
-  <si>
-    <t>IDs of 0 or more Genomic_Sequence records</t>
   </si>
   <si>
     <t>notes</t>
@@ -617,10 +613,10 @@
   <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -951,9 +947,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="3"/>
-    <col customWidth="1" max="2" min="2" width="97"/>
+    <col customWidth="1" max="2" min="2" width="117"/>
     <col customWidth="1" max="3" min="3" width="62"/>
-    <col customWidth="1" max="4" min="4" width="10"/>
+    <col customWidth="1" max="4" min="4" width="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4"/>
@@ -970,78 +966,64 @@
       <c r="B4" s="1" t="n"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4"/>
+    <row r="6" spans="1:4">
+      <c r="B6" s="1" t="n"/>
+    </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:4"/>
+    <row r="9" spans="1:4">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4"/>
-    <row r="10" spans="1:4"/>
-    <row r="11" spans="1:4">
-      <c r="B11" t="s">
+    <row r="10" spans="1:4">
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
+    </row>
+    <row r="11" spans="1:4"/>
     <row r="12" spans="1:4"/>
-    <row r="13" spans="1:4"/>
-    <row r="14" spans="1:4">
-      <c r="B14" s="1" t="s">
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-    </row>
+      <c r="C13" s="4" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4"/>
     <row r="15" spans="1:4"/>
     <row r="16" spans="1:4">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="6" t="s">
+    </row>
+    <row r="17" spans="1:4"/>
+    <row r="18" spans="1:4">
+      <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="B17" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="B18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="B19" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>0</v>
@@ -1049,10 +1031,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="B20" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>0</v>
@@ -1060,10 +1042,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="B21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>0</v>
@@ -1071,10 +1053,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="B22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>0</v>
@@ -1082,10 +1064,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>0</v>
@@ -1093,10 +1075,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="B24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>0</v>
@@ -1104,10 +1086,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="B25" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>0</v>
@@ -1115,10 +1097,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="B26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>0</v>
@@ -1126,10 +1108,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="B27" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>0</v>
@@ -1137,10 +1119,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="B28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>0</v>
@@ -1148,10 +1130,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="B29" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>0</v>
@@ -1159,10 +1141,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="B30" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>0</v>
@@ -1170,10 +1152,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="B31" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>0</v>
@@ -1181,10 +1163,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="B32" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>0</v>
@@ -1192,10 +1174,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="B33" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>0</v>
@@ -1203,10 +1185,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="B34" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>0</v>
@@ -1214,10 +1196,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="B35" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>0</v>
@@ -1225,10 +1207,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="B36" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>0</v>
@@ -1236,10 +1218,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="B37" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>0</v>
@@ -1247,10 +1229,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="B38" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>0</v>
@@ -1258,10 +1240,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="B39" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>0</v>
@@ -1269,10 +1251,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="B40" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>0</v>
@@ -1280,10 +1262,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="B41" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>0</v>
@@ -1291,10 +1273,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="B42" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>0</v>
@@ -1302,10 +1284,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="B43" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>0</v>
@@ -1313,10 +1295,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="B44" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>0</v>
@@ -1324,10 +1306,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="B45" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>0</v>
@@ -1335,10 +1317,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="B46" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>0</v>
@@ -1346,10 +1328,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>0</v>
@@ -1357,10 +1339,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="B48" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="C48" t="s">
+        <v>70</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>0</v>
@@ -1368,10 +1350,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="B49" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>0</v>
@@ -1379,10 +1361,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="B50" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>0</v>
@@ -1390,10 +1372,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="B51" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>0</v>
@@ -1401,10 +1383,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="B52" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>0</v>
@@ -1412,10 +1394,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="B53" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>0</v>
@@ -1423,10 +1405,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="B54" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>0</v>
@@ -1434,10 +1416,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="B55" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C55" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>0</v>
@@ -1445,10 +1427,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="B56" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>0</v>
@@ -1456,7 +1438,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="B57" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="12" t="n"/>
       <c r="D57" s="13" t="s">
@@ -1468,19 +1450,19 @@
     <row r="60" spans="1:4"/>
     <row r="61" spans="1:4">
       <c r="B61" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:4"/>
     <row r="63" spans="1:4">
       <c r="B63" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1596,40 +1578,40 @@
     <row r="74" spans="1:4"/>
     <row r="75" spans="1:4"/>
     <row r="76" spans="1:4">
-      <c r="B76" s="2" t="s">
-        <v>95</v>
+      <c r="B76" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="B77" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="B78" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="B79" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="B80" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:4"/>
@@ -1661,7 +1643,7 @@
     <row r="2" spans="1:3"/>
     <row r="3" spans="1:3">
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1669,16 +1651,16 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3"/>
     <row r="7" spans="1:3">
       <c r="B7" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1767,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1775,14 +1757,14 @@
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:2"/>
     <row r="7" spans="1:2"/>
     <row r="8" spans="1:2">
       <c r="B8" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:2">

--- a/germline_schema/docs/inferred_sequence_documentation_sheet.xlsx
+++ b/germline_schema/docs/inferred_sequence_documentation_sheet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -126,6 +126,12 @@
     <t>Alternative names for this sequence</t>
   </si>
   <si>
+    <t>receptor_type</t>
+  </si>
+  <si>
+    <t>Receptor type</t>
+  </si>
+  <si>
     <t>locus</t>
   </si>
   <si>
@@ -135,13 +141,13 @@
     <t>domain</t>
   </si>
   <si>
-    <t>Sequence domain (Variable or Constant)</t>
-  </si>
-  <si>
-    <t>functionality</t>
-  </si>
-  <si>
-    <t>Functionality</t>
+    <t>Sequence domain (V, D, J or Constant)</t>
+  </si>
+  <si>
+    <t>functional</t>
+  </si>
+  <si>
+    <t>Functional</t>
   </si>
   <si>
     <t>inference_type</t>
@@ -177,7 +183,8 @@
     <t>gene_subgroup</t>
   </si>
   <si>
-    <t>Gene subgroup (family), as identified for this species</t>
+    <t>Gene subgroup (family), as (and if) identified for this
+species and gene</t>
   </si>
   <si>
     <t>subgroup_designation</t>
@@ -938,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,7 +1183,7 @@
       <c r="B33" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" t="s">
         <v>40</v>
       </c>
       <c r="D33" s="9" t="s">
@@ -1209,7 +1216,7 @@
       <c r="B36" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D36" s="9" t="s">
@@ -1231,7 +1238,7 @@
       <c r="B38" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D38" s="9" t="s">
@@ -1253,7 +1260,7 @@
       <c r="B40" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" t="s">
         <v>54</v>
       </c>
       <c r="D40" s="9" t="s">
@@ -1297,7 +1304,7 @@
       <c r="B44" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -1363,7 +1370,7 @@
       <c r="B50" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" t="s">
         <v>74</v>
       </c>
       <c r="D50" s="9" t="s">
@@ -1407,7 +1414,7 @@
       <c r="B54" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="10" t="s">
         <v>82</v>
       </c>
       <c r="D54" s="9" t="s">
@@ -1437,43 +1444,43 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4"/>
+      <c r="C57" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="B58" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="12" t="n"/>
+      <c r="D58" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="59" spans="1:4"/>
     <row r="60" spans="1:4"/>
-    <row r="61" spans="1:4">
-      <c r="B61" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4"/>
-    <row r="63" spans="1:4">
-      <c r="B63" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" s="6" t="s">
+    <row r="61" spans="1:4"/>
+    <row r="62" spans="1:4">
+      <c r="B62" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D63" s="7" t="s">
+    </row>
+    <row r="63" spans="1:4"/>
+    <row r="64" spans="1:4">
+      <c r="B64" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="B64" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>0</v>
+      <c r="C64" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1565,56 +1572,67 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="B73" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4"/>
+      <c r="B73" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="B74" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="75" spans="1:4"/>
-    <row r="76" spans="1:4">
-      <c r="B76" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
+    <row r="76" spans="1:4"/>
     <row r="77" spans="1:4">
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="B78" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="B78" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="B79" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="B80" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4"/>
+      <c r="B80" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="B81" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1643,7 +1661,7 @@
     <row r="2" spans="1:3"/>
     <row r="3" spans="1:3">
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1651,16 +1669,16 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3"/>
     <row r="7" spans="1:3">
       <c r="B7" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1749,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1757,14 +1775,14 @@
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:2"/>
     <row r="7" spans="1:2"/>
     <row r="8" spans="1:2">
       <c r="B8" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:2">
